--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value247.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value247.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.423038078622685</v>
+        <v>1.169881224632263</v>
       </c>
       <c r="B1">
-        <v>1.406513849041775</v>
+        <v>2.137012720108032</v>
       </c>
       <c r="C1">
-        <v>1.449604966559484</v>
+        <v>3.09444785118103</v>
       </c>
       <c r="D1">
-        <v>1.920989514644959</v>
+        <v>3.620275259017944</v>
       </c>
       <c r="E1">
-        <v>3.174392724812253</v>
+        <v>1.4419264793396</v>
       </c>
     </row>
   </sheetData>
